--- a/public/template/template_import_siswa.xlsx
+++ b/public/template/template_import_siswa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus Vivobook\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project Web\eraport\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECE00FB-EFAD-4D21-BEE3-78DBE02E07B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4BF83F-ED3F-436E-8480-213CE724672A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="1860" windowWidth="21600" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template Siswa" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>nisn</t>
   </si>
@@ -46,12 +46,6 @@
     <t>alamat_peserta_didik</t>
   </si>
   <si>
-    <t>nama_orang_tua</t>
-  </si>
-  <si>
-    <t>alamat_orang_tua</t>
-  </si>
-  <si>
     <t>wali_peserta_didik</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>Jl Ahmad Yani</t>
   </si>
   <si>
-    <t>Muslihin</t>
-  </si>
-  <si>
     <t>tanggal_lahir</t>
   </si>
   <si>
@@ -86,6 +77,27 @@
   </si>
   <si>
     <t>id_kelas</t>
+  </si>
+  <si>
+    <t>nama_ayah</t>
+  </si>
+  <si>
+    <t>nama_ibu</t>
+  </si>
+  <si>
+    <t>alamat_ayah</t>
+  </si>
+  <si>
+    <t>alamat_ibu</t>
+  </si>
+  <si>
+    <t>suhartono</t>
+  </si>
+  <si>
+    <t>putri salsabila</t>
+  </si>
+  <si>
+    <t>jl ahmad yani</t>
   </si>
 </sst>
 </file>
@@ -436,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -453,10 +465,10 @@
     <col min="7" max="7" width="18.88671875" customWidth="1"/>
     <col min="8" max="8" width="16.88671875" customWidth="1"/>
     <col min="9" max="9" width="23.33203125" customWidth="1"/>
-    <col min="10" max="16" width="26.33203125" customWidth="1"/>
+    <col min="10" max="18" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -467,13 +479,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -488,26 +500,32 @@
         <v>7</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>9999</v>
@@ -516,28 +534,34 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>16</v>
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
